--- a/Internet_Censorship_List.xlsx
+++ b/Internet_Censorship_List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qwetional/016/pro_think/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qwetional/016/Internet_Censorship_Watch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939658EA-CCD7-E241-A579-959DE1510254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E16AC8-6BA3-5547-A593-63DD8C5FAB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1500" windowWidth="27440" windowHeight="15440" xr2:uid="{08DEA006-02BB-C445-AFCE-F8418D1BF47C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="109">
   <si>
     <t>其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -490,6 +490,19 @@
   </si>
   <si>
     <t>AIS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Movistar Fibra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未封鎖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智利
+Chile</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,6 +676,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2390CF00-D7C8-CB4E-92CD-1A0579AB3FF2}">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1006,16 +1025,16 @@
     <row r="1" spans="1:20">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="2" t="s">
         <v>67</v>
       </c>
@@ -1121,7 +1140,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="34">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1165,7 +1184,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="34">
-      <c r="A5" s="19"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1468,7 +1487,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="37" customHeight="1">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1510,7 +1529,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="38" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2431,6 +2450,47 @@
       </c>
       <c r="T34" s="17">
         <v>44712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="34">
+      <c r="A35" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="T35" s="17">
+        <v>44682</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_Censorship_List.xlsx
+++ b/Internet_Censorship_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qwetional/016/Internet_Censorship_Watch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E16AC8-6BA3-5547-A593-63DD8C5FAB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6139B312-63BC-974A-A328-911839DAB2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1500" windowWidth="27440" windowHeight="15440" xr2:uid="{08DEA006-02BB-C445-AFCE-F8418D1BF47C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="112">
   <si>
     <t>其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -503,6 +503,19 @@
   <si>
     <t>智利
 Chile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dlive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未封鎖
+(HTTPS)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通過路由黑洞封鎖朝鮮網站。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,6 +689,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1004,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2390CF00-D7C8-CB4E-92CD-1A0579AB3FF2}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1025,16 +1041,16 @@
     <row r="1" spans="1:20">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="2" t="s">
         <v>67</v>
       </c>
@@ -1140,7 +1156,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="34">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1183,7 +1199,7 @@
         <v>44684</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="34">
+    <row r="5" spans="1:20" ht="36" customHeight="1">
       <c r="A5" s="23"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -1225,12 +1241,10 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="34">
-      <c r="A6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
+    <row r="6" spans="1:20" ht="36" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>90</v>
@@ -1250,17 +1264,20 @@
       <c r="H6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>93</v>
+      <c r="I6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="s">
+        <v>111</v>
       </c>
       <c r="T6" s="17">
         <v>44686</v>
@@ -1268,10 +1285,10 @@
     </row>
     <row r="7" spans="1:20" ht="34">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>90</v>
@@ -1300,22 +1317,19 @@
       <c r="K7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>73</v>
+      <c r="L7" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="T7" s="17">
-        <v>44687</v>
+        <v>44686</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="34">
       <c r="A8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>90</v>
@@ -1348,190 +1362,194 @@
         <v>90</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T8" s="17">
-        <v>44688</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="34">
       <c r="A9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="17">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="34">
+      <c r="A10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" s="11" t="s">
+      <c r="C10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T10" s="17">
         <v>44689</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="34">
-      <c r="A10" s="18" t="s">
+    <row r="11" spans="1:20" ht="34">
+      <c r="A11" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="11" t="s">
+      <c r="C11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="T10" s="17">
-        <v>44690</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="34">
-      <c r="A11" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="T11" s="17">
         <v>44690</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="37" customHeight="1">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:20" ht="34">
+      <c r="A12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="T12" s="17">
+        <v>44690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="37" customHeight="1">
+      <c r="A13" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="T12" s="17">
-        <v>44691</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="38" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>90</v>
@@ -1563,16 +1581,15 @@
       <c r="L13" s="10" t="s">
         <v>90</v>
       </c>
+      <c r="M13" s="11"/>
       <c r="T13" s="17">
         <v>44691</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="34">
-      <c r="A14" s="15" t="s">
-        <v>57</v>
-      </c>
+    <row r="14" spans="1:20" ht="38" customHeight="1">
+      <c r="A14" s="23"/>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>90</v>
@@ -1604,22 +1621,19 @@
       <c r="L14" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="T14" s="17">
-        <v>44692</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="34">
       <c r="A15" s="15" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>93</v>
+        <v>19</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>90</v>
@@ -1648,19 +1662,22 @@
       <c r="L15" s="10" t="s">
         <v>90</v>
       </c>
+      <c r="M15" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="T15" s="17">
-        <v>44693</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="34">
       <c r="A16" s="15" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>90</v>
@@ -1684,24 +1701,21 @@
         <v>90</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="T16" s="17">
-        <v>44694</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="34">
       <c r="A17" s="15" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>90</v>
@@ -1727,151 +1741,154 @@
       <c r="J17" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>90</v>
+      <c r="K17" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>90</v>
       </c>
+      <c r="M17" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="T17" s="17">
-        <v>44695</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="34">
       <c r="A18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="T18" s="17">
+        <v>44695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="34">
+      <c r="A19" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18" s="11" t="s">
+      <c r="C19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="T18" s="17">
+      <c r="T19" s="17">
         <v>44696</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="51">
-      <c r="A19" s="15" t="s">
+    <row r="20" spans="1:20" ht="51">
+      <c r="A20" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="D20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G20" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="H20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L20" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M20" t="s">
         <v>84</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T20" s="17">
         <v>44697</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="34">
-      <c r="A20" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="T20" s="17">
-        <v>44698</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="34">
       <c r="A21" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>90</v>
@@ -1897,151 +1914,151 @@
       <c r="J21" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>96</v>
+      <c r="K21" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="M21" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="T21" s="17">
-        <v>44699</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="34">
       <c r="A22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="T22" s="17">
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="34">
+      <c r="A23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="T22" s="17">
+      <c r="C23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="T23" s="17">
         <v>44700</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="68">
-      <c r="A23" s="15" t="s">
+    <row r="24" spans="1:20" ht="68">
+      <c r="A24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="M23" s="11" t="s">
+      <c r="C24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="T23" s="17">
+      <c r="T24" s="17">
         <v>44701</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="34">
-      <c r="A24" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="T24" s="17">
-        <v>44702</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="34">
       <c r="A25" s="15" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>90</v>
@@ -2067,22 +2084,22 @@
       <c r="J25" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K25" s="12" t="s">
-        <v>96</v>
+      <c r="K25" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>90</v>
       </c>
       <c r="T25" s="17">
-        <v>44703</v>
+        <v>44702</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="34">
       <c r="A26" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>90</v>
@@ -2109,21 +2126,21 @@
         <v>90</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>90</v>
       </c>
       <c r="T26" s="17">
-        <v>44704</v>
+        <v>44703</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="34">
       <c r="A27" s="15" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>90</v>
@@ -2140,8 +2157,8 @@
       <c r="G27" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>96</v>
+      <c r="H27" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>90</v>
@@ -2155,19 +2172,16 @@
       <c r="L27" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="M27" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="T27" s="17">
-        <v>44705</v>
+        <v>44704</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="34">
       <c r="A28" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>90</v>
@@ -2184,8 +2198,8 @@
       <c r="G28" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>90</v>
+      <c r="H28" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>90</v>
@@ -2193,22 +2207,25 @@
       <c r="J28" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>90</v>
+      <c r="K28" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>90</v>
       </c>
+      <c r="M28" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="T28" s="17">
-        <v>44706</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="34">
       <c r="A29" s="15" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>90</v>
@@ -2234,22 +2251,22 @@
       <c r="J29" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K29" s="12" t="s">
-        <v>93</v>
+      <c r="K29" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>90</v>
       </c>
       <c r="T29" s="17">
-        <v>44707</v>
+        <v>44706</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="34">
       <c r="A30" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>90</v>
@@ -2275,22 +2292,22 @@
       <c r="J30" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K30" s="10" t="s">
-        <v>90</v>
+      <c r="K30" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>90</v>
       </c>
       <c r="T30" s="17">
-        <v>44708</v>
+        <v>44707</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="34">
       <c r="A31" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>90</v>
@@ -2323,15 +2340,15 @@
         <v>90</v>
       </c>
       <c r="T31" s="17">
-        <v>44709</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="34">
       <c r="A32" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>37</v>
+        <v>77</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>90</v>
@@ -2357,139 +2374,180 @@
       <c r="J32" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K32" s="12" t="s">
-        <v>96</v>
+      <c r="K32" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>90</v>
       </c>
       <c r="T32" s="17">
-        <v>44710</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="34">
       <c r="A33" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="T33" s="17">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="34">
+      <c r="A34" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="T33" s="17">
+      <c r="C34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="T34" s="17">
         <v>44711</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="34">
-      <c r="A34" s="18" t="s">
+    <row r="35" spans="1:20" ht="34">
+      <c r="A35" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B35" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L34" s="12" t="s">
+      <c r="C35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L35" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M35" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="T34" s="17">
+      <c r="T35" s="17">
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="34">
-      <c r="A35" s="20" t="s">
+    <row r="36" spans="1:20" ht="34">
+      <c r="A36" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B36" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="T35" s="17">
+      <c r="T36" s="17">
         <v>44682</v>
       </c>
     </row>
@@ -2497,8 +2555,8 @@
   <mergeCells count="4">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Internet_Censorship_List.xlsx
+++ b/Internet_Censorship_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qwetional/016/Internet_Censorship_Watch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6139B312-63BC-974A-A328-911839DAB2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E381E64-5115-324A-AEC1-72613D803324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1500" windowWidth="27440" windowHeight="15440" xr2:uid="{08DEA006-02BB-C445-AFCE-F8418D1BF47C}"/>
   </bookViews>
@@ -354,10 +354,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>封鎖朝鮮網站。域名劫持至warning.or.kr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>有報道表明日本政府曾要求運營商封鎖盜版漫畫網站</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -515,7 +511,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通過路由黑洞封鎖朝鮮網站。</t>
+    <t>通過路由黑洞或域名劫持封鎖朝鮮網站。域名劫持至warning.or.kr。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封鎖朝鮮網站。若有域名劫持，劫持至warning.or.kr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="T1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1119,34 +1119,34 @@
         <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>71</v>
@@ -1163,37 +1163,37 @@
         <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="T4" s="17">
         <v>44684</v>
@@ -1205,37 +1205,37 @@
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="T5" s="17">
         <v>44685</v>
@@ -1244,40 +1244,40 @@
     <row r="6" spans="1:20" ht="36" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="s">
         <v>110</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" t="s">
-        <v>111</v>
       </c>
       <c r="T6" s="17">
         <v>44686</v>
@@ -1291,34 +1291,34 @@
         <v>13</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T7" s="17">
         <v>44686</v>
@@ -1332,37 +1332,37 @@
         <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T8" s="17">
         <v>44687</v>
@@ -1376,37 +1376,37 @@
         <v>63</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T9" s="17">
         <v>44688</v>
@@ -1420,37 +1420,37 @@
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T10" s="17">
         <v>44689</v>
@@ -1458,43 +1458,43 @@
     </row>
     <row r="11" spans="1:20" ht="34">
       <c r="A11" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="T11" s="17">
         <v>44690</v>
@@ -1508,13 +1508,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>16</v>
@@ -1523,22 +1523,22 @@
         <v>16</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T12" s="17">
         <v>44690</v>
@@ -1549,37 +1549,37 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M13" s="11"/>
       <c r="T13" s="17">
@@ -1592,34 +1592,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T14" s="17">
         <v>44691</v>
@@ -1633,37 +1633,37 @@
         <v>19</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T15" s="17">
         <v>44692</v>
@@ -1677,34 +1677,34 @@
         <v>20</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T16" s="17">
         <v>44693</v>
@@ -1718,37 +1718,37 @@
         <v>21</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="L17" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T17" s="17">
         <v>44694</v>
@@ -1762,34 +1762,34 @@
         <v>22</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T18" s="17">
         <v>44695</v>
@@ -1803,37 +1803,37 @@
         <v>23</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T19" s="17">
         <v>44696</v>
@@ -1847,37 +1847,37 @@
         <v>26</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="M20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T20" s="17">
         <v>44697</v>
@@ -1891,34 +1891,34 @@
         <v>24</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T21" s="17">
         <v>44698</v>
@@ -1932,37 +1932,37 @@
         <v>25</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T22" s="17">
         <v>44699</v>
@@ -1976,34 +1976,34 @@
         <v>27</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T23" s="17">
         <v>44700</v>
@@ -2017,37 +2017,37 @@
         <v>28</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T24" s="17">
         <v>44701</v>
@@ -2055,40 +2055,40 @@
     </row>
     <row r="25" spans="1:20" ht="34">
       <c r="A25" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T25" s="17">
         <v>44702</v>
@@ -2102,34 +2102,34 @@
         <v>30</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T26" s="17">
         <v>44703</v>
@@ -2143,34 +2143,34 @@
         <v>31</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T27" s="17">
         <v>44704</v>
@@ -2178,43 +2178,43 @@
     </row>
     <row r="28" spans="1:20" ht="34">
       <c r="A28" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T28" s="17">
         <v>44705</v>
@@ -2222,40 +2222,40 @@
     </row>
     <row r="29" spans="1:20" ht="34">
       <c r="A29" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T29" s="17">
         <v>44706</v>
@@ -2269,34 +2269,34 @@
         <v>34</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T30" s="17">
         <v>44707</v>
@@ -2310,34 +2310,34 @@
         <v>35</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T31" s="17">
         <v>44708</v>
@@ -2345,40 +2345,40 @@
     </row>
     <row r="32" spans="1:20" ht="34">
       <c r="A32" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T32" s="17">
         <v>44709</v>
@@ -2386,40 +2386,40 @@
     </row>
     <row r="33" spans="1:20" ht="34">
       <c r="A33" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T33" s="17">
         <v>44710</v>
@@ -2433,34 +2433,34 @@
         <v>38</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T34" s="17">
         <v>44711</v>
@@ -2468,43 +2468,43 @@
     </row>
     <row r="35" spans="1:20" ht="34">
       <c r="A35" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T35" s="17">
         <v>44712</v>
@@ -2512,40 +2512,40 @@
     </row>
     <row r="36" spans="1:20" ht="34">
       <c r="A36" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>107</v>
-      </c>
       <c r="D36" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T36" s="17">
         <v>44682</v>

--- a/Internet_Censorship_List.xlsx
+++ b/Internet_Censorship_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qwetional/016/Internet_Censorship_Watch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E381E64-5115-324A-AEC1-72613D803324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCD1705-DBED-7E45-BE1D-C32BDA22697F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1500" windowWidth="27440" windowHeight="15440" xr2:uid="{08DEA006-02BB-C445-AFCE-F8418D1BF47C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="114">
   <si>
     <t>其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -516,6 +516,14 @@
   </si>
   <si>
     <t>封鎖朝鮮網站。若有域名劫持，劫持至warning.or.kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNI重設</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +697,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1020,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2390CF00-D7C8-CB4E-92CD-1A0579AB3FF2}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1041,16 +1052,16 @@
     <row r="1" spans="1:20">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="2" t="s">
         <v>67</v>
       </c>
@@ -1156,7 +1167,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="34">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1200,7 +1211,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="36" customHeight="1">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1242,7 +1253,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="36" customHeight="1">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="22" t="s">
         <v>108</v>
       </c>
@@ -1545,7 +1556,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="37" customHeight="1">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1587,7 +1598,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="38" customHeight="1">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1625,12 +1636,10 @@
         <v>44691</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="34">
-      <c r="A15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
+    <row r="15" spans="1:20" ht="38" customHeight="1">
+      <c r="A15" s="24"/>
+      <c r="B15" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>89</v>
@@ -1657,27 +1666,24 @@
         <v>89</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="T15" s="17">
-        <v>44692</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="34">
       <c r="A16" s="15" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>92</v>
+        <v>19</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>89</v>
@@ -1706,19 +1712,22 @@
       <c r="L16" s="10" t="s">
         <v>89</v>
       </c>
+      <c r="M16" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="T16" s="17">
-        <v>44693</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="34">
       <c r="A17" s="15" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>89</v>
+        <v>20</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>89</v>
@@ -1742,24 +1751,21 @@
         <v>89</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="M17" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="T17" s="17">
-        <v>44694</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="34">
       <c r="A18" s="15" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>89</v>
@@ -1785,151 +1791,154 @@
       <c r="J18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>89</v>
+      <c r="K18" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>89</v>
       </c>
+      <c r="M18" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="T18" s="17">
-        <v>44695</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="34">
       <c r="A19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="T19" s="17">
+        <v>44695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="34">
+      <c r="A20" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="M19" s="11" t="s">
+      <c r="C20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T20" s="17">
         <v>44696</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="51">
-      <c r="A20" s="15" t="s">
+    <row r="21" spans="1:20" ht="51">
+      <c r="A21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="12" t="s">
+      <c r="D21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G21" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="H21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L21" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M21" t="s">
         <v>83</v>
       </c>
-      <c r="T20" s="17">
+      <c r="T21" s="17">
         <v>44697</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="34">
-      <c r="A21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="T21" s="17">
-        <v>44698</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="34">
       <c r="A22" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>89</v>
@@ -1955,151 +1964,151 @@
       <c r="J22" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K22" s="12" t="s">
-        <v>95</v>
+      <c r="K22" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="M22" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="T22" s="17">
-        <v>44699</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="34">
       <c r="A23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="T23" s="17">
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="34">
+      <c r="A24" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="T23" s="17">
+      <c r="C24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="T24" s="17">
         <v>44700</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="68">
-      <c r="A24" s="15" t="s">
+    <row r="25" spans="1:20" ht="68">
+      <c r="A25" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="M24" s="11" t="s">
+      <c r="C25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="T24" s="17">
+      <c r="T25" s="17">
         <v>44701</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="34">
-      <c r="A25" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="T25" s="17">
-        <v>44702</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="34">
       <c r="A26" s="15" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>89</v>
@@ -2125,22 +2134,22 @@
       <c r="J26" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K26" s="12" t="s">
-        <v>95</v>
+      <c r="K26" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>89</v>
       </c>
       <c r="T26" s="17">
-        <v>44703</v>
+        <v>44702</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="34">
       <c r="A27" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>89</v>
@@ -2167,21 +2176,21 @@
         <v>89</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>89</v>
       </c>
       <c r="T27" s="17">
-        <v>44704</v>
+        <v>44703</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="34">
       <c r="A28" s="15" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>89</v>
@@ -2198,8 +2207,8 @@
       <c r="G28" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>95</v>
+      <c r="H28" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>89</v>
@@ -2213,19 +2222,16 @@
       <c r="L28" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="M28" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="T28" s="17">
-        <v>44705</v>
+        <v>44704</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="34">
       <c r="A29" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>89</v>
@@ -2242,8 +2248,8 @@
       <c r="G29" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>89</v>
+      <c r="H29" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>89</v>
@@ -2251,22 +2257,25 @@
       <c r="J29" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>89</v>
+      <c r="K29" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>89</v>
       </c>
+      <c r="M29" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="T29" s="17">
-        <v>44706</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="34">
       <c r="A30" s="15" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>89</v>
@@ -2292,22 +2301,22 @@
       <c r="J30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K30" s="12" t="s">
-        <v>92</v>
+      <c r="K30" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>89</v>
       </c>
       <c r="T30" s="17">
-        <v>44707</v>
+        <v>44706</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="34">
       <c r="A31" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>89</v>
@@ -2333,22 +2342,22 @@
       <c r="J31" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>89</v>
+      <c r="K31" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>89</v>
       </c>
       <c r="T31" s="17">
-        <v>44708</v>
+        <v>44707</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="34">
       <c r="A32" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>89</v>
@@ -2381,15 +2390,15 @@
         <v>89</v>
       </c>
       <c r="T32" s="17">
-        <v>44709</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="34">
       <c r="A33" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>37</v>
+        <v>76</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>89</v>
@@ -2415,139 +2424,180 @@
       <c r="J33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K33" s="12" t="s">
-        <v>95</v>
+      <c r="K33" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>89</v>
       </c>
       <c r="T33" s="17">
-        <v>44710</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="34">
       <c r="A34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="T34" s="17">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="34">
+      <c r="A35" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="T34" s="17">
+      <c r="C35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="T35" s="17">
         <v>44711</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="34">
-      <c r="A35" s="18" t="s">
+    <row r="36" spans="1:20" ht="34">
+      <c r="A36" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B36" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L35" s="12" t="s">
+      <c r="C36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L36" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M36" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="T35" s="17">
+      <c r="T36" s="17">
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="34">
-      <c r="A36" s="20" t="s">
+    <row r="37" spans="1:20" ht="34">
+      <c r="A37" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B37" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="T36" s="17">
+      <c r="T37" s="17">
         <v>44682</v>
       </c>
     </row>
@@ -2555,8 +2605,8 @@
   <mergeCells count="4">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Internet_Censorship_List.xlsx
+++ b/Internet_Censorship_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qwetional/016/Internet_Censorship_Watch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCD1705-DBED-7E45-BE1D-C32BDA22697F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C438F96-40A1-D444-86D7-BDCFE3B5FFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1500" windowWidth="27440" windowHeight="15440" xr2:uid="{08DEA006-02BB-C445-AFCE-F8418D1BF47C}"/>
+    <workbookView xWindow="1080" yWindow="1460" windowWidth="27440" windowHeight="15440" xr2:uid="{08DEA006-02BB-C445-AFCE-F8418D1BF47C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="116">
   <si>
     <t>其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -524,6 +524,15 @@
   </si>
   <si>
     <t>SNI重設</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>愛沙尼亞
+Estonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telia</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,6 +713,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1031,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2390CF00-D7C8-CB4E-92CD-1A0579AB3FF2}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1052,16 +1064,16 @@
     <row r="1" spans="1:20">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="2" t="s">
         <v>67</v>
       </c>
@@ -1167,7 +1179,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="34">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1211,7 +1223,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="36" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1253,7 +1265,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="36" customHeight="1">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="22" t="s">
         <v>108</v>
       </c>
@@ -1556,7 +1568,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="37" customHeight="1">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1598,7 +1610,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="38" customHeight="1">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1637,7 +1649,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="38" customHeight="1">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="23" t="s">
         <v>112</v>
       </c>
@@ -2599,6 +2611,47 @@
       </c>
       <c r="T37" s="17">
         <v>44682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="34">
+      <c r="A38" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="T38" s="17">
+        <v>44713</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_Censorship_List.xlsx
+++ b/Internet_Censorship_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qwetional/016/Internet_Censorship_Watch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C438F96-40A1-D444-86D7-BDCFE3B5FFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A723F526-F218-C64C-BDAA-D9EBAAC97CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1460" windowWidth="27440" windowHeight="15440" xr2:uid="{08DEA006-02BB-C445-AFCE-F8418D1BF47C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="118">
   <si>
     <t>其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -387,11 +387,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>圣盧西亞
-Saint Lucia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>封鎖親俄網站</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -533,6 +528,20 @@
   </si>
   <si>
     <t>Telia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寮國
+Laos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unitel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聖盧西亞
+Saint Lucia</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,6 +725,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1043,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2390CF00-D7C8-CB4E-92CD-1A0579AB3FF2}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1064,16 +1079,16 @@
     <row r="1" spans="1:20">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="2" t="s">
         <v>67</v>
       </c>
@@ -1090,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1142,34 +1157,34 @@
         <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>71</v>
@@ -1179,128 +1194,128 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="34">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T4" s="17">
         <v>44684</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="36" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T5" s="17">
         <v>44685</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="36" customHeight="1">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="s">
         <v>109</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" t="s">
-        <v>110</v>
       </c>
       <c r="T6" s="17">
         <v>44686</v>
@@ -1314,34 +1329,34 @@
         <v>13</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T7" s="17">
         <v>44686</v>
@@ -1355,34 +1370,34 @@
         <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>72</v>
@@ -1399,34 +1414,34 @@
         <v>63</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>73</v>
@@ -1443,37 +1458,37 @@
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T10" s="17">
         <v>44689</v>
@@ -1481,43 +1496,43 @@
     </row>
     <row r="11" spans="1:20" ht="34">
       <c r="A11" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="T11" s="17">
         <v>44690</v>
@@ -1531,13 +1546,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>16</v>
@@ -1546,63 +1561,63 @@
         <v>16</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T12" s="17">
         <v>44690</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="37" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M13" s="11"/>
       <c r="T13" s="17">
@@ -1610,78 +1625,78 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="38" customHeight="1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T14" s="17">
         <v>44691</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="38" customHeight="1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="L15" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T15" s="17">
         <v>44713</v>
@@ -1695,37 +1710,37 @@
         <v>19</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T16" s="17">
         <v>44692</v>
@@ -1739,34 +1754,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T17" s="17">
         <v>44693</v>
@@ -1780,37 +1795,37 @@
         <v>21</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="L18" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T18" s="17">
         <v>44694</v>
@@ -1824,34 +1839,34 @@
         <v>22</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T19" s="17">
         <v>44695</v>
@@ -1865,37 +1880,37 @@
         <v>23</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T20" s="17">
         <v>44696</v>
@@ -1909,37 +1924,37 @@
         <v>26</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="L21" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="M21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T21" s="17">
         <v>44697</v>
@@ -1953,34 +1968,34 @@
         <v>24</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T22" s="17">
         <v>44698</v>
@@ -1994,37 +2009,37 @@
         <v>25</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T23" s="17">
         <v>44699</v>
@@ -2038,34 +2053,34 @@
         <v>27</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T24" s="17">
         <v>44700</v>
@@ -2079,37 +2094,37 @@
         <v>28</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T25" s="17">
         <v>44701</v>
@@ -2117,40 +2132,40 @@
     </row>
     <row r="26" spans="1:20" ht="34">
       <c r="A26" s="15" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T26" s="17">
         <v>44702</v>
@@ -2164,34 +2179,34 @@
         <v>30</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T27" s="17">
         <v>44703</v>
@@ -2205,34 +2220,34 @@
         <v>31</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T28" s="17">
         <v>44704</v>
@@ -2246,37 +2261,37 @@
         <v>32</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T29" s="17">
         <v>44705</v>
@@ -2290,34 +2305,34 @@
         <v>33</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T30" s="17">
         <v>44706</v>
@@ -2331,34 +2346,34 @@
         <v>34</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T31" s="17">
         <v>44707</v>
@@ -2372,34 +2387,34 @@
         <v>35</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T32" s="17">
         <v>44708</v>
@@ -2413,34 +2428,34 @@
         <v>36</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T33" s="17">
         <v>44709</v>
@@ -2454,34 +2469,34 @@
         <v>37</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T34" s="17">
         <v>44710</v>
@@ -2495,34 +2510,34 @@
         <v>38</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T35" s="17">
         <v>44711</v>
@@ -2533,40 +2548,40 @@
         <v>74</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T36" s="17">
         <v>44712</v>
@@ -2574,40 +2589,40 @@
     </row>
     <row r="37" spans="1:20" ht="34">
       <c r="A37" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T37" s="17">
         <v>44682</v>
@@ -2615,43 +2630,84 @@
     </row>
     <row r="38" spans="1:20" ht="34">
       <c r="A38" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>115</v>
-      </c>
       <c r="C38" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T38" s="17">
         <v>44713</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="34">
+      <c r="A39" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="T39" s="17">
+        <v>44714</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_Censorship_List.xlsx
+++ b/Internet_Censorship_List.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qwetional/016/Internet_Censorship_Watch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A723F526-F218-C64C-BDAA-D9EBAAC97CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF258664-D153-7A43-9D8C-8F4DD73AAC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1460" windowWidth="27440" windowHeight="15440" xr2:uid="{08DEA006-02BB-C445-AFCE-F8418D1BF47C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="121">
   <si>
     <t>其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -542,6 +542,19 @@
   <si>
     <t>聖盧西亞
 Saint Lucia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法國
+France</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNS欺騙</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +744,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1058,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2390CF00-D7C8-CB4E-92CD-1A0579AB3FF2}">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1079,16 +1095,16 @@
     <row r="1" spans="1:20">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="2" t="s">
         <v>67</v>
       </c>
@@ -1194,7 +1210,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="34">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1238,7 +1254,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="36" customHeight="1">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1280,7 +1296,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="36" customHeight="1">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="22" t="s">
         <v>107</v>
       </c>
@@ -1583,7 +1599,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="37" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1625,7 +1641,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="38" customHeight="1">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1664,7 +1680,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="38" customHeight="1">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="23" t="s">
         <v>111</v>
       </c>
@@ -2708,6 +2724,47 @@
       </c>
       <c r="T39" s="17">
         <v>44714</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="34">
+      <c r="A40" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="T40" s="17">
+        <v>44715</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_Censorship_List.xlsx
+++ b/Internet_Censorship_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qwetional/016/Internet_Censorship_Watch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF258664-D153-7A43-9D8C-8F4DD73AAC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CEF5FA-AD07-1D44-807B-674A105527EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1460" windowWidth="27440" windowHeight="15440" xr2:uid="{08DEA006-02BB-C445-AFCE-F8418D1BF47C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="122">
   <si>
     <t>其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -555,6 +555,11 @@
   </si>
   <si>
     <t>DNS欺騙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德國
+Germany</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,6 +752,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1074,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2390CF00-D7C8-CB4E-92CD-1A0579AB3FF2}">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1095,16 +1106,16 @@
     <row r="1" spans="1:20">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="2" t="s">
         <v>67</v>
       </c>
@@ -1210,7 +1221,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="34">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1254,7 +1265,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="36" customHeight="1">
-      <c r="A5" s="28"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1296,7 +1307,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="36" customHeight="1">
-      <c r="A6" s="28"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="22" t="s">
         <v>107</v>
       </c>
@@ -1599,7 +1610,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="37" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="30" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1641,7 +1652,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="38" customHeight="1">
-      <c r="A14" s="28"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1680,7 +1691,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="38" customHeight="1">
-      <c r="A15" s="28"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="23" t="s">
         <v>111</v>
       </c>
@@ -2765,6 +2776,47 @@
       </c>
       <c r="T40" s="17">
         <v>44715</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="34">
+      <c r="A41" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="T41" s="17">
+        <v>44716</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_Censorship_List.xlsx
+++ b/Internet_Censorship_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qwetional/016/Internet_Censorship_Watch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CEF5FA-AD07-1D44-807B-674A105527EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F8D886-FE78-704D-8B34-871659DB8605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1460" windowWidth="27440" windowHeight="15440" xr2:uid="{08DEA006-02BB-C445-AFCE-F8418D1BF47C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="124">
   <si>
     <t>其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -560,6 +560,16 @@
   <si>
     <t>德國
 Germany</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格魯吉亞
+Georgia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagtiCom
+(@GoogleDNS, Switzerland)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +768,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1085,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2390CF00-D7C8-CB4E-92CD-1A0579AB3FF2}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1106,16 +1119,16 @@
     <row r="1" spans="1:20">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="2" t="s">
         <v>67</v>
       </c>
@@ -1221,7 +1234,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="34">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1265,7 +1278,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="36" customHeight="1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1307,7 +1320,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="36" customHeight="1">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="22" t="s">
         <v>107</v>
       </c>
@@ -1610,7 +1623,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="37" customHeight="1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1652,7 +1665,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="38" customHeight="1">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1691,7 +1704,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="38" customHeight="1">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="23" t="s">
         <v>111</v>
       </c>
@@ -2817,6 +2830,47 @@
       </c>
       <c r="T41" s="17">
         <v>44716</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="34">
+      <c r="A42" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="T42" s="17">
+        <v>44717</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_Censorship_List.xlsx
+++ b/Internet_Censorship_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qwetional/016/Internet_Censorship_Watch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F8D886-FE78-704D-8B34-871659DB8605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC34B3D-1AAD-734C-A970-40323FF47929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1460" windowWidth="27440" windowHeight="15440" xr2:uid="{08DEA006-02BB-C445-AFCE-F8418D1BF47C}"/>
   </bookViews>
@@ -577,6 +577,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -730,9 +733,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -778,9 +778,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1119,23 +1122,23 @@
     <row r="1" spans="1:20">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="2" t="s">
         <v>67</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>69</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1185,11 +1188,11 @@
       <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="32">
         <v>44682</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="34">
+    <row r="3" spans="1:20" ht="51">
       <c r="A3" s="15" t="s">
         <v>52</v>
       </c>
@@ -1229,12 +1232,12 @@
       <c r="M3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="32">
         <v>44683</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="34">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:20" ht="51">
+      <c r="A4" s="30" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1273,12 +1276,12 @@
       <c r="M4" t="s">
         <v>110</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="32">
         <v>44684</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="36" customHeight="1">
-      <c r="A5" s="31"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1315,13 +1318,13 @@
       <c r="M5" t="s">
         <v>110</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="32">
         <v>44685</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="36" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="21" t="s">
         <v>107</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1357,7 +1360,7 @@
       <c r="M6" t="s">
         <v>109</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="32">
         <v>44686</v>
       </c>
     </row>
@@ -1398,7 +1401,7 @@
       <c r="L7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="32">
         <v>44686</v>
       </c>
     </row>
@@ -1442,7 +1445,7 @@
       <c r="M8" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="32">
         <v>44687</v>
       </c>
     </row>
@@ -1486,7 +1489,7 @@
       <c r="M9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="32">
         <v>44688</v>
       </c>
     </row>
@@ -1530,12 +1533,12 @@
       <c r="M10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="32">
         <v>44689</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="34">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1574,7 +1577,7 @@
       <c r="M11" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T11" s="32">
         <v>44690</v>
       </c>
     </row>
@@ -1618,12 +1621,12 @@
       <c r="M12" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="32">
         <v>44690</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="37" customHeight="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1660,12 +1663,12 @@
         <v>88</v>
       </c>
       <c r="M13" s="11"/>
-      <c r="T13" s="17">
+      <c r="T13" s="32">
         <v>44691</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="38" customHeight="1">
-      <c r="A14" s="31"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1699,13 +1702,13 @@
       <c r="L14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T14" s="17">
+      <c r="T14" s="32">
         <v>44691</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="38" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="22" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -1738,7 +1741,7 @@
       <c r="L15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T15" s="17">
+      <c r="T15" s="32">
         <v>44713</v>
       </c>
     </row>
@@ -1782,7 +1785,7 @@
       <c r="M16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="T16" s="17">
+      <c r="T16" s="32">
         <v>44692</v>
       </c>
     </row>
@@ -1823,7 +1826,7 @@
       <c r="L17" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T17" s="17">
+      <c r="T17" s="32">
         <v>44693</v>
       </c>
     </row>
@@ -1867,7 +1870,7 @@
       <c r="M18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="T18" s="17">
+      <c r="T18" s="32">
         <v>44694</v>
       </c>
     </row>
@@ -1908,7 +1911,7 @@
       <c r="L19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T19" s="32">
         <v>44695</v>
       </c>
     </row>
@@ -1952,11 +1955,11 @@
       <c r="M20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="T20" s="17">
+      <c r="T20" s="32">
         <v>44696</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="51">
+    <row r="21" spans="1:20" ht="68">
       <c r="A21" s="15" t="s">
         <v>60</v>
       </c>
@@ -1996,7 +1999,7 @@
       <c r="M21" t="s">
         <v>82</v>
       </c>
-      <c r="T21" s="17">
+      <c r="T21" s="32">
         <v>44697</v>
       </c>
     </row>
@@ -2037,7 +2040,7 @@
       <c r="L22" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T22" s="17">
+      <c r="T22" s="32">
         <v>44698</v>
       </c>
     </row>
@@ -2081,11 +2084,11 @@
       <c r="M23" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="T23" s="17">
+      <c r="T23" s="32">
         <v>44699</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="34">
+    <row r="24" spans="1:20" ht="51">
       <c r="A24" s="15" t="s">
         <v>61</v>
       </c>
@@ -2122,7 +2125,7 @@
       <c r="L24" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T24" s="17">
+      <c r="T24" s="32">
         <v>44700</v>
       </c>
     </row>
@@ -2166,7 +2169,7 @@
       <c r="M25" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="T25" s="17">
+      <c r="T25" s="32">
         <v>44701</v>
       </c>
     </row>
@@ -2207,7 +2210,7 @@
       <c r="L26" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T26" s="17">
+      <c r="T26" s="32">
         <v>44702</v>
       </c>
     </row>
@@ -2248,7 +2251,7 @@
       <c r="L27" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T27" s="17">
+      <c r="T27" s="32">
         <v>44703</v>
       </c>
     </row>
@@ -2289,7 +2292,7 @@
       <c r="L28" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T28" s="17">
+      <c r="T28" s="32">
         <v>44704</v>
       </c>
     </row>
@@ -2333,7 +2336,7 @@
       <c r="M29" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="T29" s="17">
+      <c r="T29" s="32">
         <v>44705</v>
       </c>
     </row>
@@ -2374,7 +2377,7 @@
       <c r="L30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T30" s="17">
+      <c r="T30" s="32">
         <v>44706</v>
       </c>
     </row>
@@ -2415,7 +2418,7 @@
       <c r="L31" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T31" s="17">
+      <c r="T31" s="32">
         <v>44707</v>
       </c>
     </row>
@@ -2456,7 +2459,7 @@
       <c r="L32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T32" s="17">
+      <c r="T32" s="32">
         <v>44708</v>
       </c>
     </row>
@@ -2497,7 +2500,7 @@
       <c r="L33" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T33" s="17">
+      <c r="T33" s="32">
         <v>44709</v>
       </c>
     </row>
@@ -2538,7 +2541,7 @@
       <c r="L34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T34" s="17">
+      <c r="T34" s="32">
         <v>44710</v>
       </c>
     </row>
@@ -2579,15 +2582,15 @@
       <c r="L35" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T35" s="17">
+      <c r="T35" s="32">
         <v>44711</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="34">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>102</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -2623,15 +2626,15 @@
       <c r="M36" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="T36" s="17">
+      <c r="T36" s="32">
         <v>44712</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="34">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -2664,15 +2667,15 @@
       <c r="L37" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="T37" s="17">
+      <c r="T37" s="32">
         <v>44682</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="34">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="23" t="s">
         <v>114</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -2705,15 +2708,15 @@
       <c r="L38" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="T38" s="17">
+      <c r="T38" s="32">
         <v>44713</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="34">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="25" t="s">
         <v>116</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -2746,15 +2749,15 @@
       <c r="L39" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="T39" s="17">
-        <v>44714</v>
+      <c r="T39" s="32">
+        <v>44772</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="34">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>119</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -2787,15 +2790,15 @@
       <c r="L40" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="T40" s="17">
+      <c r="T40" s="32">
         <v>44715</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="34">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -2828,15 +2831,15 @@
       <c r="L41" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="T41" s="17">
+      <c r="T41" s="32">
         <v>44716</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="34">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="29" t="s">
         <v>123</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -2869,7 +2872,7 @@
       <c r="L42" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="T42" s="17">
+      <c r="T42" s="32">
         <v>44717</v>
       </c>
     </row>

--- a/Internet_Censorship_List.xlsx
+++ b/Internet_Censorship_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qwetional/016/Internet_Censorship_Watch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qwetional/Git_Projects/Internet-Censorship-Watch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5C156A-3887-9F4D-A5B4-22DCACDB19A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4C5F82-F15C-524F-8CCA-2EBCFAC7ECC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="580" windowWidth="27440" windowHeight="15440" xr2:uid="{08DEA006-02BB-C445-AFCE-F8418D1BF47C}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="27440" windowHeight="15440" xr2:uid="{08DEA006-02BB-C445-AFCE-F8418D1BF47C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="132">
   <si>
     <t>其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -134,10 +134,6 @@
   </si>
   <si>
     <t>TELUS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kerala Vision</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -395,10 +391,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>部分運營商封鎖Reddit、Telegram與SCI-HUB。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>發起戰爭後網絡審査更為嚴格。域名劫持至warning.rt.ru。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -574,6 +566,46 @@
   </si>
   <si>
     <t>LG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊朗
+Iran</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shatel
+(@GoogleDNS, United States)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>強制安全搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封鎖力度和中國內地相比幾乎相當，一些方面甚至更嚴厲。微博、Tiktok、淘寶被封鎖。通過DNS污染的方式將Google轉向至forcesafesearch.google.com，使得安全搜索強制開啓。封鎖Shadowsocks等代理伺服器。維基百科可用。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿富汗
+Afganistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封鎖中國知名網站如QQ、微博、小紅書、百度、抖音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AFSAT
+(@GoogleDNS, United States)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由於採用Google DNS，無法測試是否有被DNS污染封鎖的網站。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -764,7 +796,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1052,7 +1084,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1060,9 +1092,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2390CF00-D7C8-CB4E-92CD-1A0579AB3FF2}">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1078,7 +1112,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="C1" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -1088,30 +1122,30 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1149,43 +1183,43 @@
     </row>
     <row r="3" spans="1:20" ht="34">
       <c r="A3" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T3" s="15">
         <v>44683</v>
@@ -1193,43 +1227,43 @@
     </row>
     <row r="4" spans="1:20" ht="34">
       <c r="A4" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T4" s="15">
         <v>44684</v>
@@ -1241,37 +1275,37 @@
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T5" s="15">
         <v>44685</v>
@@ -1280,80 +1314,80 @@
     <row r="6" spans="1:20" ht="36" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T6" s="15"/>
     </row>
     <row r="7" spans="1:20" ht="36" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s">
         <v>107</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="s">
-        <v>109</v>
       </c>
       <c r="T7" s="15">
         <v>44686</v>
@@ -1361,40 +1395,40 @@
     </row>
     <row r="8" spans="1:20" ht="34">
       <c r="A8" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T8" s="15">
         <v>44686</v>
@@ -1402,43 +1436,43 @@
     </row>
     <row r="9" spans="1:20" ht="34">
       <c r="A9" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T9" s="15">
         <v>44687</v>
@@ -1446,43 +1480,43 @@
     </row>
     <row r="10" spans="1:20" ht="34">
       <c r="A10" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T10" s="15">
         <v>44688</v>
@@ -1490,43 +1524,43 @@
     </row>
     <row r="11" spans="1:20" ht="34">
       <c r="A11" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T11" s="15">
         <v>44689</v>
@@ -1534,43 +1568,43 @@
     </row>
     <row r="12" spans="1:20" ht="34">
       <c r="A12" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T12" s="15">
         <v>44690</v>
@@ -1578,19 +1612,19 @@
     </row>
     <row r="13" spans="1:20" ht="34">
       <c r="A13" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>16</v>
@@ -1599,22 +1633,22 @@
         <v>16</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T13" s="15">
         <v>44690</v>
@@ -1622,40 +1656,40 @@
     </row>
     <row r="14" spans="1:20" ht="37" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M14" s="9"/>
       <c r="T14" s="15">
@@ -1668,34 +1702,34 @@
         <v>18</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T15" s="15">
         <v>44691</v>
@@ -1704,37 +1738,37 @@
     <row r="16" spans="1:20" ht="38" customHeight="1">
       <c r="A16" s="16"/>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T16" s="15">
         <v>44713</v>
@@ -1742,43 +1776,43 @@
     </row>
     <row r="17" spans="1:20" ht="34">
       <c r="A17" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T17" s="15">
         <v>44692</v>
@@ -1786,40 +1820,40 @@
     </row>
     <row r="18" spans="1:20" ht="34">
       <c r="A18" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T18" s="15">
         <v>44693</v>
@@ -1827,43 +1861,43 @@
     </row>
     <row r="19" spans="1:20" ht="34">
       <c r="A19" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T19" s="15">
         <v>44694</v>
@@ -1871,40 +1905,40 @@
     </row>
     <row r="20" spans="1:20" ht="34">
       <c r="A20" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T20" s="15">
         <v>44695</v>
@@ -1912,43 +1946,43 @@
     </row>
     <row r="21" spans="1:20" ht="34">
       <c r="A21" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T21" s="15">
         <v>44696</v>
@@ -1956,43 +1990,43 @@
     </row>
     <row r="22" spans="1:20" ht="51">
       <c r="A22" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T22" s="15">
         <v>44697</v>
@@ -2000,40 +2034,40 @@
     </row>
     <row r="23" spans="1:20" ht="34">
       <c r="A23" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T23" s="15">
         <v>44698</v>
@@ -2041,84 +2075,84 @@
     </row>
     <row r="24" spans="1:20" ht="34">
       <c r="A24" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="T24" s="15">
-        <v>44699</v>
+        <v>45121</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="34">
       <c r="A25" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T25" s="15">
         <v>44700</v>
@@ -2126,43 +2160,43 @@
     </row>
     <row r="26" spans="1:20" ht="68">
       <c r="A26" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T26" s="15">
         <v>44701</v>
@@ -2170,40 +2204,40 @@
     </row>
     <row r="27" spans="1:20" ht="34">
       <c r="A27" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T27" s="15">
         <v>44702</v>
@@ -2211,40 +2245,40 @@
     </row>
     <row r="28" spans="1:20" ht="34">
       <c r="A28" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T28" s="15">
         <v>44703</v>
@@ -2252,40 +2286,40 @@
     </row>
     <row r="29" spans="1:20" ht="34">
       <c r="A29" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T29" s="15">
         <v>44704</v>
@@ -2293,43 +2327,43 @@
     </row>
     <row r="30" spans="1:20" ht="34">
       <c r="A30" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T30" s="15">
         <v>44705</v>
@@ -2337,40 +2371,40 @@
     </row>
     <row r="31" spans="1:20" ht="34">
       <c r="A31" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T31" s="15">
         <v>44706</v>
@@ -2378,40 +2412,40 @@
     </row>
     <row r="32" spans="1:20" ht="34">
       <c r="A32" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T32" s="15">
         <v>44707</v>
@@ -2419,40 +2453,40 @@
     </row>
     <row r="33" spans="1:20" ht="34">
       <c r="A33" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T33" s="15">
         <v>44708</v>
@@ -2460,40 +2494,40 @@
     </row>
     <row r="34" spans="1:20" ht="34">
       <c r="A34" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T34" s="15">
         <v>44709</v>
@@ -2501,40 +2535,40 @@
     </row>
     <row r="35" spans="1:20" ht="34">
       <c r="A35" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T35" s="15">
         <v>44710</v>
@@ -2542,40 +2576,40 @@
     </row>
     <row r="36" spans="1:20" ht="34">
       <c r="A36" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T36" s="15">
         <v>44711</v>
@@ -2583,43 +2617,43 @@
     </row>
     <row r="37" spans="1:20" ht="34">
       <c r="A37" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T37" s="15">
         <v>44712</v>
@@ -2627,40 +2661,40 @@
     </row>
     <row r="38" spans="1:20" ht="34">
       <c r="A38" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T38" s="15">
         <v>44682</v>
@@ -2668,40 +2702,40 @@
     </row>
     <row r="39" spans="1:20" ht="34">
       <c r="A39" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T39" s="15">
         <v>44713</v>
@@ -2709,40 +2743,40 @@
     </row>
     <row r="40" spans="1:20" ht="34">
       <c r="A40" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T40" s="15">
         <v>44772</v>
@@ -2750,40 +2784,40 @@
     </row>
     <row r="41" spans="1:20" ht="34">
       <c r="A41" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L41" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="T41" s="15">
         <v>44715</v>
@@ -2791,40 +2825,40 @@
     </row>
     <row r="42" spans="1:20" ht="34">
       <c r="A42" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T42" s="15">
         <v>44716</v>
@@ -2832,43 +2866,131 @@
     </row>
     <row r="43" spans="1:20" ht="34">
       <c r="A43" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T43" s="15">
         <v>44717</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="34">
+      <c r="A44" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="T44" s="15">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="34">
+      <c r="A45" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="T45" s="15">
+        <v>45121</v>
       </c>
     </row>
   </sheetData>
@@ -2880,5 +3002,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Internet_Censorship_List.xlsx
+++ b/Internet_Censorship_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qwetional/Git_Projects/Internet-Censorship-Watch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4C5F82-F15C-524F-8CCA-2EBCFAC7ECC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7002938D-A361-974F-B2A0-F14483B0AA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="27440" windowHeight="15440" xr2:uid="{08DEA006-02BB-C445-AFCE-F8418D1BF47C}"/>
   </bookViews>
@@ -592,10 +592,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>封鎖中國知名網站如QQ、微博、小紅書、百度、抖音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AFSAT
 (@GoogleDNS, United States)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -606,6 +602,10 @@
   </si>
   <si>
     <t>ACT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封鎖中國知名網站如QQ、微博、微信、小紅書、百度。封鎖不完整，這些網站主頁被SNI重設，但App仍可部分或完整使用。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1094,7 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2390CF00-D7C8-CB4E-92CD-1A0579AB3FF2}">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
@@ -2078,7 +2078,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>86</v>
@@ -2111,7 +2111,7 @@
         <v>86</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="T24" s="15">
         <v>45121</v>
@@ -2954,7 +2954,7 @@
         <v>127</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>103</v>
@@ -2987,7 +2987,7 @@
         <v>103</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T45" s="15">
         <v>45121</v>

--- a/Internet_Censorship_List.xlsx
+++ b/Internet_Censorship_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qwetional/Git_Projects/Internet-Censorship-Watch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7002938D-A361-974F-B2A0-F14483B0AA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFA3949-8962-9647-BD17-BD87933B13DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="27440" windowHeight="15440" xr2:uid="{08DEA006-02BB-C445-AFCE-F8418D1BF47C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="134">
   <si>
     <t>其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -117,15 +117,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FPT Telecom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Kazakhtelecom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONLINE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -460,10 +452,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SmarTone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>測試年月</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -606,6 +594,26 @@
   </si>
   <si>
     <t>封鎖中國知名網站如QQ、微博、微信、小紅書、百度。封鎖不完整，這些網站主頁被SNI重設，但App仍可部分或完整使用。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viettel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口封鎖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metfone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>於2023年7月份大選前封鎖了Radio Free Asia和Cambodia Daily Khmer二個網站</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -717,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,6 +779,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2390CF00-D7C8-CB4E-92CD-1A0579AB3FF2}">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
@@ -1112,7 +1123,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="C1" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -1122,30 +1133,30 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1183,43 +1194,43 @@
     </row>
     <row r="3" spans="1:20" ht="34">
       <c r="A3" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T3" s="15">
         <v>44683</v>
@@ -1227,43 +1238,43 @@
     </row>
     <row r="4" spans="1:20" ht="34">
       <c r="A4" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T4" s="15">
         <v>44684</v>
@@ -1275,37 +1286,37 @@
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T5" s="15">
         <v>44685</v>
@@ -1314,80 +1325,80 @@
     <row r="6" spans="1:20" ht="36" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T6" s="15"/>
     </row>
     <row r="7" spans="1:20" ht="36" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T7" s="15">
         <v>44686</v>
@@ -1395,40 +1406,40 @@
     </row>
     <row r="8" spans="1:20" ht="34">
       <c r="A8" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T8" s="15">
         <v>44686</v>
@@ -1436,43 +1447,43 @@
     </row>
     <row r="9" spans="1:20" ht="34">
       <c r="A9" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T9" s="15">
         <v>44687</v>
@@ -1480,43 +1491,43 @@
     </row>
     <row r="10" spans="1:20" ht="34">
       <c r="A10" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T10" s="15">
         <v>44688</v>
@@ -1524,43 +1535,43 @@
     </row>
     <row r="11" spans="1:20" ht="34">
       <c r="A11" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T11" s="15">
         <v>44689</v>
@@ -1568,43 +1579,43 @@
     </row>
     <row r="12" spans="1:20" ht="34">
       <c r="A12" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T12" s="15">
         <v>44690</v>
@@ -1612,19 +1623,19 @@
     </row>
     <row r="13" spans="1:20" ht="34">
       <c r="A13" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>16</v>
@@ -1633,22 +1644,22 @@
         <v>16</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T13" s="15">
         <v>44690</v>
@@ -1656,44 +1667,44 @@
     </row>
     <row r="14" spans="1:20" ht="37" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M14" s="9"/>
       <c r="T14" s="15">
-        <v>44691</v>
+        <v>45134</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="38" customHeight="1">
@@ -1702,34 +1713,34 @@
         <v>18</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T15" s="15">
         <v>44691</v>
@@ -1738,37 +1749,37 @@
     <row r="16" spans="1:20" ht="38" customHeight="1">
       <c r="A16" s="16"/>
       <c r="B16" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T16" s="15">
         <v>44713</v>
@@ -1776,128 +1787,128 @@
     </row>
     <row r="17" spans="1:20" ht="34">
       <c r="A17" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T17" s="15">
-        <v>44692</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="34">
       <c r="A18" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T18" s="15">
-        <v>44693</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="34">
       <c r="A19" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T19" s="15">
         <v>44694</v>
@@ -1905,84 +1916,87 @@
     </row>
     <row r="20" spans="1:20" ht="34">
       <c r="A20" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="T20" s="15">
-        <v>44695</v>
+        <v>45155</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="34">
       <c r="A21" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T21" s="15">
         <v>44696</v>
@@ -1990,43 +2004,43 @@
     </row>
     <row r="22" spans="1:20" ht="51">
       <c r="A22" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T22" s="15">
         <v>44697</v>
@@ -2034,40 +2048,40 @@
     </row>
     <row r="23" spans="1:20" ht="34">
       <c r="A23" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T23" s="15">
         <v>44698</v>
@@ -2075,43 +2089,43 @@
     </row>
     <row r="24" spans="1:20" ht="34">
       <c r="A24" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="T24" s="15">
         <v>45121</v>
@@ -2119,40 +2133,40 @@
     </row>
     <row r="25" spans="1:20" ht="34">
       <c r="A25" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T25" s="15">
         <v>44700</v>
@@ -2160,43 +2174,43 @@
     </row>
     <row r="26" spans="1:20" ht="68">
       <c r="A26" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T26" s="15">
         <v>44701</v>
@@ -2204,40 +2218,40 @@
     </row>
     <row r="27" spans="1:20" ht="34">
       <c r="A27" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T27" s="15">
         <v>44702</v>
@@ -2245,40 +2259,40 @@
     </row>
     <row r="28" spans="1:20" ht="34">
       <c r="A28" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T28" s="15">
         <v>44703</v>
@@ -2286,40 +2300,40 @@
     </row>
     <row r="29" spans="1:20" ht="34">
       <c r="A29" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T29" s="15">
         <v>44704</v>
@@ -2327,43 +2341,43 @@
     </row>
     <row r="30" spans="1:20" ht="34">
       <c r="A30" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="T30" s="15">
         <v>44705</v>
@@ -2371,40 +2385,40 @@
     </row>
     <row r="31" spans="1:20" ht="34">
       <c r="A31" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T31" s="15">
         <v>44706</v>
@@ -2412,40 +2426,40 @@
     </row>
     <row r="32" spans="1:20" ht="34">
       <c r="A32" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T32" s="15">
         <v>44707</v>
@@ -2453,40 +2467,40 @@
     </row>
     <row r="33" spans="1:20" ht="34">
       <c r="A33" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T33" s="15">
         <v>44708</v>
@@ -2494,40 +2508,40 @@
     </row>
     <row r="34" spans="1:20" ht="34">
       <c r="A34" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T34" s="15">
         <v>44709</v>
@@ -2535,40 +2549,40 @@
     </row>
     <row r="35" spans="1:20" ht="34">
       <c r="A35" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T35" s="15">
         <v>44710</v>
@@ -2576,40 +2590,40 @@
     </row>
     <row r="36" spans="1:20" ht="34">
       <c r="A36" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T36" s="15">
         <v>44711</v>
@@ -2617,43 +2631,43 @@
     </row>
     <row r="37" spans="1:20" ht="34">
       <c r="A37" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T37" s="15">
         <v>44712</v>
@@ -2661,40 +2675,40 @@
     </row>
     <row r="38" spans="1:20" ht="34">
       <c r="A38" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T38" s="15">
         <v>44682</v>
@@ -2702,40 +2716,40 @@
     </row>
     <row r="39" spans="1:20" ht="34">
       <c r="A39" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T39" s="15">
         <v>44713</v>
@@ -2743,40 +2757,40 @@
     </row>
     <row r="40" spans="1:20" ht="34">
       <c r="A40" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T40" s="15">
         <v>44772</v>
@@ -2784,40 +2798,40 @@
     </row>
     <row r="41" spans="1:20" ht="34">
       <c r="A41" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T41" s="15">
         <v>44715</v>
@@ -2825,40 +2839,40 @@
     </row>
     <row r="42" spans="1:20" ht="34">
       <c r="A42" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T42" s="15">
         <v>44716</v>
@@ -2866,40 +2880,40 @@
     </row>
     <row r="43" spans="1:20" ht="34">
       <c r="A43" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T43" s="15">
         <v>44717</v>
@@ -2907,43 +2921,43 @@
     </row>
     <row r="44" spans="1:20" ht="34">
       <c r="A44" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M44" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="T44" s="15">
         <v>45121</v>
@@ -2951,43 +2965,43 @@
     </row>
     <row r="45" spans="1:20" ht="34">
       <c r="A45" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T45" s="15">
         <v>45121</v>
